--- a/tests/integration/data/Renderer015-ForEach-merged-two-tables/template.xlsx
+++ b/tests/integration/data/Renderer015-ForEach-merged-two-tables/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siemi\aProjects\xlsx-renderer-2\tests\integration\data\Renderer015-ForEach-merged-two-tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petricahorlescu/Documents/GIT/MillTechFX.xlsx-renderer/tests/integration/data/Renderer015-ForEach-merged-two-tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAA6AB1-1CC6-4B1A-848C-0C36F110BA80}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031E0156-C425-DD42-8308-F9110BD3CC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27795" windowHeight="16440" xr2:uid="{51D64FAE-FDF3-4046-A668-3472FA61F864}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27800" windowHeight="16100" xr2:uid="{51D64FAE-FDF3-4046-A668-3472FA61F864}"/>
   </bookViews>
   <sheets>
     <sheet name="Most common for each" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>#! END_ROW</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>## el.col2</t>
+  </si>
+  <si>
+    <t>#! END_ROW true</t>
   </si>
 </sst>
 </file>
@@ -496,18 +499,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CB5A86-9F62-4CA9-8E69-0560B4CC82E1}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -518,8 +521,11 @@
       <c r="D1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -530,13 +536,16 @@
       <c r="D2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -546,7 +555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -557,8 +566,11 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -569,8 +581,11 @@
       <c r="D6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
@@ -580,7 +595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -592,7 +607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
